--- a/va_facility_data_2025-02-20/Denton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Denton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Denton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Denton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbf45a2bcbade4a348523cf270b4973bb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb5d1ed49ce8a4057b32bf38a54b0237a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re7fd7570759f42ed93dfbece6fcd163e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb01e77bbdb5349eaa7e797d780626fd3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6ad1ad4a332a40588bdf15add738fa03"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reebc50036d2a4b24bee4a8975122d6b3"/>
   </x:sheets>
 </x:workbook>
 </file>
